--- a/informal/informal_1/test.xlsx
+++ b/informal/informal_1/test.xlsx
@@ -1,53 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git文件\Python_study\informal\informal_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E56A15-1065-4456-A26B-9EB6A5107268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>成功注册（有昵称）</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://120.25.246.42:8080/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18281186787','pwd':'lemon123','regname':'meson'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>成功注册（无昵称）</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18281186788','pwd':'lemon123'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>注册失败（重复）</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18281186788','pwd':'lemon123','regname':'meson'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF3BE540"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF3BE540"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,90 +148,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,125 +438,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.375" customWidth="1" style="4" min="1" max="1"/>
-    <col width="12.5" customWidth="1" style="4" min="2" max="2"/>
-    <col width="20.625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="10.375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="34.5" customWidth="1" style="4" min="5" max="5"/>
-    <col width="68.5" customWidth="1" style="4" min="6" max="6"/>
-    <col width="58" customWidth="1" style="4" min="7" max="7"/>
-    <col width="67.625" customWidth="1" style="4" min="8" max="8"/>
-    <col width="9" customWidth="1" style="4" min="9" max="10"/>
-    <col width="9" customWidth="1" style="4" min="11" max="16384"/>
+    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="84.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="66.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="71.375" style="4" customWidth="1"/>
+    <col min="9" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>expected result</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>compare</t>
-        </is>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customFormat="1" customHeight="1" s="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>成功注册（有昵称）</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>http://120.25.246.42:8080/futureloan/mvc/api/member/register</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18281186787','pwd':'lemon123','regname':'meson'}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>